--- a/codegen/__out__/pc/public/excel_template/esw/card.xlsx
+++ b/codegen/__out__/pc/public/excel_template/esw/card.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"` })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.grade_lbl%&gt;&lt;%selectList.grade = data.getDictbiz.find((item) =&gt; item[0]?.code === "card_grade")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.grade &amp;&amp; selectList.grade.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.grade.join(",") }"`, allowBlank: '0' })%&gt;</t>

--- a/codegen/__out__/pc/public/excel_template/esw/card.xlsx
+++ b/codegen/__out__/pc/public/excel_template/esw/card.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.grade_lbl%&gt;&lt;%selectList.grade = data.getDictbiz.find((item) =&gt; item[0]?.code === "card_grade")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.grade &amp;&amp; selectList.grade.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.grade.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">&lt;%=comment.growth_amt%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.is_default_lbl%&gt;&lt;%selectList.is_default = data.getDict.find((item) =&gt; item[0]?.code === "is_default")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_default &amp;&amp; selectList.is_default.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_default.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.is_default_card_lbl%&gt;&lt;%selectList.is_default_card = data.getDict.find((item) =&gt; item[0]?.code === "is_default")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_default_card &amp;&amp; selectList.is_default_card.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_default_card.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">&lt;%~model.growth_amt%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model.is_default_lbl%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_default_card_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
